--- a/B035_ジョギングランキング.xlsx
+++ b/B035_ジョギングランキング.xlsx
@@ -67,14 +67,142 @@
     <t xml:space="preserve">英字小文字</t>
   </si>
   <si>
+    <t xml:space="preserve">a_iが先月走った距離の合計を表す整数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ≦ p_i ≦ 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先月のジョギング記録の順位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月のジョギング記録の順位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月のジョギング記録の日付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ≦ d_j ≦ 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月ジョギングした部員の名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_1, a_2, ..., a_n のうち、いずれかに一致する文字列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その日にジョギングした距離を表す整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ≦ x_j ≦ 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先月の成績</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注釈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last_month's_jogging_records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_i[key]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月のジョギングデータ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogging data for this months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">距離集計配列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative_jogging_distances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月ジョギングした距離の累積</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">先月の順位と比べたときのラベルを表す文字列 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月の成績</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this_month_of_jogging_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部員の名前を表す文字列 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月ジョギングした距離の合計を表す整数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed_value_read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データファイルからN,M,Tを取得する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_month_value_read</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a_iが</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">データファイルから先月の上位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
     </r>
     <r>
       <rPr>
@@ -84,20 +212,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">先月走った距離の合計を表す整数 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">p_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ≦ p_i ≦ 10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先月のジョギング記録の順位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
+      <t xml:space="preserve">件分のデータを取得する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">step3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this_month_value_read</t>
   </si>
   <si>
     <r>
@@ -108,7 +230,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">今月のジョギング記録の</t>
+      <t xml:space="preserve">データファイルから今月の上位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M</t>
     </r>
     <r>
       <rPr>
@@ -116,12 +248,34 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">順位</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">件分のデータを取得する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">step4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member_name_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月のジョギングデータの部員の名前が先月も存在するか確認する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative jogging distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今月のジョギングデータを部員の名前をKEYに距離を累積して距離集計配列に追加する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative_jogging_distance_sort</t>
   </si>
   <si>
     <r>
@@ -130,8 +284,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">今月のジョギング</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">距離集計配列の距離を昇順にして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SORT</t>
     </r>
     <r>
       <rPr>
@@ -141,14 +306,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">記録の日付</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">d_j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ≦ d_j ≦ 30</t>
+      <t xml:space="preserve">する。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">step7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade judgment</t>
   </si>
   <si>
     <r>
@@ -157,8 +322,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">今月ジョギング</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">先月の成績と今月の成績を比較して「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UP</t>
     </r>
     <r>
       <rPr>
@@ -168,94 +344,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">した部員の名前</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">w_j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_1, a_2, ..., a_n のうち、いずれかに一致する文字列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その日にジョギングした距離を表す整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_j </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ≦ x_j ≦ 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先月の成績</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last_month's_jogging_records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注釈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月のジョギングデータ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogging data for this months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">距離集計配列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative_jogging_distances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月ジョギングした距離の累積</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先月の順位と比べたときのラベルを表す文字列 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_k </t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月の成績</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this_month_of_jogging_performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部員の名前を表す文字列 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月ジョギングした距離の合計を表す整数 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_value_read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データファイルからN,M,Tを取得する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_month_value_read</t>
-  </si>
-  <si>
+      <t xml:space="preserve">」「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Down</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -264,7 +364,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">データファイルから先月の上位</t>
+      <t xml:space="preserve">」の判断をする</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">step8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create gradebook</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">成績表配列を上位</t>
     </r>
     <r>
       <rPr>
@@ -283,217 +401,6 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">件分のデータを取得する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">step3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this_month_value_read</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">データファイルから今月の上位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">件分のデータを取得する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">step4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member_name_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月のジョギングデータの部員の名前が先月も存在するか確認する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative jogging distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今月のジョギングデータを部員の名前をKEYに距離を累積して距離集計配列に追加する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative_jogging_distance_sort</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">距離集計配列の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">距離を昇順にして</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SORT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">する。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">step7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade judgment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">先月の成績と今月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">の成績を比較して「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">」「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">」の判断をする</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">step8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create gradebook</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">成績表配列を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">上位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">件分のデータのみ作成する。</t>
     </r>
@@ -506,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -532,20 +439,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -564,6 +460,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Serif CJK JP"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -609,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,27 +523,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,16 +547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1596240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -680,8 +565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9992160" y="45000"/>
-          <a:ext cx="4296960" cy="3020760"/>
+          <a:off x="10046880" y="194400"/>
+          <a:ext cx="4296600" cy="3063240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,15 +858,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.13"/>
@@ -997,7 +883,6 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1006,10 +891,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1017,69 +902,64 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
@@ -1088,307 +968,273 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B20" s="0"/>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="0"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="0"/>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
       <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
+      <c r="B31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1396,97 +1242,15 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/B035_ジョギングランキング.xlsx
+++ b/B035_ジョギングランキング.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">注釈</t>
   </si>
   <si>
-    <t xml:space="preserve">Last_month's_jogging_records</t>
+    <t xml:space="preserve">Last_month's_joggings</t>
   </si>
   <si>
     <t xml:space="preserve">a_i[key]</t>
@@ -130,13 +130,31 @@
     <t xml:space="preserve">今月のジョギングデータ</t>
   </si>
   <si>
-    <t xml:space="preserve">Jogging data for this months</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">this_months_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Joggings</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">距離集計配列</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative_jogging_distances</t>
+    <t xml:space="preserve">Cumulative_distances</t>
   </si>
   <si>
     <t xml:space="preserve">今月ジョギングした距離の累積</t>
@@ -413,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,6 +467,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -510,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,6 +552,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1047,8 +1075,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0"/>

--- a/B035_ジョギングランキング.xlsx
+++ b/B035_ジョギングランキング.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t xml:space="preserve">概要</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">注釈</t>
   </si>
   <si>
-    <t xml:space="preserve">Last_month's_joggings</t>
+    <t xml:space="preserve">last_months_joggings</t>
   </si>
   <si>
     <t xml:space="preserve">a_i[key]</t>
@@ -130,31 +130,22 @@
     <t xml:space="preserve">今月のジョギングデータ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">this_months_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Joggings</t>
-    </r>
+    <t xml:space="preserve">this_months_joggings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先月は不在の部員配列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先月は不在の部員の名前</t>
   </si>
   <si>
     <t xml:space="preserve">距離集計配列</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative_distances</t>
+    <t xml:space="preserve">cumulative_distances</t>
   </si>
   <si>
     <t xml:space="preserve">今月ジョギングした距離の累積</t>
@@ -169,7 +160,7 @@
     <t xml:space="preserve">今月の成績</t>
   </si>
   <si>
-    <t xml:space="preserve">this_month_of_jogging_performance</t>
+    <t xml:space="preserve">create_gradebook</t>
   </si>
   <si>
     <t xml:space="preserve">R_k</t>
@@ -471,7 +462,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Noto Sans CJK JP"/>
       <family val="2"/>
     </font>
     <font>
@@ -582,9 +573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>120600</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -594,7 +585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10046880" y="194400"/>
-          <a:ext cx="4296600" cy="3063240"/>
+          <a:ext cx="4296240" cy="3062880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,15 +877,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.65"/>
@@ -1065,21 +1056,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1108,177 +1093,193 @@
         <v>28</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="0"/>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/B035_ジョギングランキング.xlsx
+++ b/B035_ジョギングランキング.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
